--- a/Manuscript/Submitted Files to FR/R2 - 20 July 2020/Manuscript Pieces/Figures and Tables/Table 5 - ML Parameters.xlsx
+++ b/Manuscript/Submitted Files to FR/R2 - 20 July 2020/Manuscript Pieces/Figures and Tables/Table 5 - ML Parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Weng Lab/Personal_Folders/Steve/dissertation work/Ch 4. Opakapaka Growth/Manuscript/Submitted Files to FR/Revised Manuscript Files/Figures and Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Weng Lab/Personal_Folders/Steve/dissertation work/Ch 4. Opakapaka Growth/Manuscript/Submitted Files to FR/R2 - 20 July 2020/Manuscript Pieces/Figures and Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604CABEE-092A-B344-A117-3531695C2048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3D3388-21F3-A040-A46C-48E17BC3B372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="3400" windowWidth="27600" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-960" yWindow="10420" windowWidth="27600" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 3" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Model 10</t>
-  </si>
-  <si>
-    <t>66.79 (70.27, 78.69)</t>
   </si>
   <si>
     <t>5.256 (4.00, 6.83)</t>
@@ -238,9 +235,6 @@
     <t>2.39 (2, 2.77)</t>
   </si>
   <si>
-    <t>`-0.37 (-0.47, -0.28)</t>
-  </si>
-  <si>
     <t>0.96 (0.49, 1.31)</t>
   </si>
   <si>
@@ -263,6 +257,12 @@
   </si>
   <si>
     <t>2.08 (1.50, 2.55)</t>
+  </si>
+  <si>
+    <t>-0.37 (-0.47, -0.28)</t>
+  </si>
+  <si>
+    <t>76.79 (70.27, 78.69)</t>
   </si>
 </sst>
 </file>
@@ -832,7 +832,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -876,6 +876,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="18" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1256,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1274,22 +1280,22 @@
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="19" t="s">
-        <v>37</v>
+      <c r="B1" s="21" t="s">
+        <v>36</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
       <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
       <c r="R1" s="15"/>
@@ -1334,22 +1340,22 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="21"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1403,28 +1409,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>39</v>
+      <c r="D3" s="3" t="s">
+        <v>37</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>39</v>
+      <c r="F3" s="3" t="s">
+        <v>37</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1476,31 +1482,31 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="5">
         <v>62.95</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="5">
         <v>77.959999999999994</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
+      <c r="E4" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="F4" s="5">
         <v>64.739999999999995</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="5">
         <v>66.87</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1552,31 +1558,31 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="5">
         <v>5.07</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="5">
         <v>6.02</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="5">
         <v>5.62</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="5">
         <v>5.53</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1634,25 +1640,25 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" s="5">
         <v>0.122</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="5">
         <v>0.26200000000000001</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="5">
         <v>0.253</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1704,31 +1710,31 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="5">
         <v>0.98</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" s="5">
         <v>1.5</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="5">
         <v>0.99</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1780,31 +1786,31 @@
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5">
         <v>0.17</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" s="5">
         <v>0.13</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="5">
         <v>0.18</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="5">
         <v>0.18</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1856,31 +1862,31 @@
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="5">
         <v>2.5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9" s="5">
         <v>2.97</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="5">
         <v>2.2000000000000002</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" s="5">
         <v>2.3199999999999998</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1932,7 +1938,7 @@
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>4</v>
@@ -1944,19 +1950,19 @@
         <v>-0.86</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="5">
         <v>-0.31</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" s="5">
         <v>-0.27</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2008,7 +2014,7 @@
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>4</v>
@@ -2020,19 +2026,19 @@
         <v>6.79</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="5">
         <v>1.82</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="5">
         <v>1.33</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2084,7 +2090,7 @@
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>4</v>
@@ -2096,19 +2102,19 @@
         <v>1.33</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="9">
         <v>4.07</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" s="9">
         <v>3.93</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2218,18 +2224,18 @@
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="22" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="17" t="s">
+      <c r="E14" s="25"/>
+      <c r="F14" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2285,22 +2291,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>39</v>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2354,25 +2360,25 @@
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5">
         <v>64.739999999999995</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="5">
         <v>69.34</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="11">
         <v>68.14</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2426,25 +2432,25 @@
     </row>
     <row r="17" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="5">
         <v>5.62</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="5">
         <v>4.26</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" s="16">
         <v>4.9000000000000004</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -2504,19 +2510,19 @@
         <v>0.26100000000000001</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="5">
         <v>0.14599999999999999</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="11">
         <v>0.214</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -2570,25 +2576,25 @@
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="5">
         <v>1</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="5">
         <v>1.5</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="11">
         <v>1.1240000000000001</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2642,25 +2648,25 @@
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="5">
         <v>0.18</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="5">
         <v>0.14000000000000001</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="11">
         <v>0.16</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2714,25 +2720,25 @@
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="5">
         <v>2.2000000000000002</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="5">
         <v>3.29</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" s="11">
         <v>2.66</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2786,25 +2792,25 @@
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5">
         <v>-0.31</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="5">
         <v>-0.8</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="11">
         <v>-0.37</v>
       </c>
-      <c r="G22" s="12" t="s">
-        <v>72</v>
+      <c r="G22" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2858,25 +2864,25 @@
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="5">
         <v>1.82</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="5">
         <v>1.61</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" s="11">
         <v>1.04</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2930,25 +2936,25 @@
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="9">
         <v>4.07</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="9">
         <v>1.43</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" s="13">
         <v>3</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
